--- a/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_config_test_ni_config_description_logs.xlsx
+++ b/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_config_test_ni_config_description_logs.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:e35e2d1a-94f8-4f24-a6fa-8fbc6543267d"&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:069f02c7-2c87-41b2-b3c5-2f515a3f8531"&gt;
   &lt;data/&gt;
 &lt;/rpc-reply&gt;
 </t>
@@ -539,10 +539,10 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Response of edit-config: &lt;rpc-reply message-id="urn:uuid:76e04a29-96f9-402e-a648-bc94a14ec968"&gt;
+          <t xml:space="preserve">- Response of edit-config: &lt;rpc-reply message-id="urn:uuid:6dc19892-acb3-4dc3-a6a7-9ad0e84e272d"&gt;
   &lt;ok/&gt;
 &lt;/rpc-reply&gt;
- - Response of commit: &lt;rpc-reply xmlns:nc-ext="urn:huawei:yang:huawei-ietf-netconf-ext" message-id="urn:uuid:51331a37-0a4f-4eab-a6ad-967962186bf2" nc-ext:flow-id="79"&gt;
+ - Response of commit: &lt;rpc-reply xmlns:nc-ext="urn:huawei:yang:huawei-ietf-netconf-ext" message-id="urn:uuid:f3e468d0-3e07-49be-89d0-2e9c1da35da9" nc-ext:flow-id="243"&gt;
   &lt;ok/&gt;
 &lt;/rpc-reply&gt;
 </t>
@@ -550,7 +550,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:094c7ac0-1211-43c2-bc98-aa01438064f5"&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:114f6d69-82a1-42e7-832a-4406ea90d22d"&gt;
   &lt;data&gt;
     &lt;network-instances&gt;
       &lt;network-instance&gt;
